--- a/results/comp_study/aggr_stats.xlsx
+++ b/results/comp_study/aggr_stats.xlsx
@@ -699,16 +699,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>23.39609134197235</v>
+        <v>23.4</v>
       </c>
       <c r="D2">
-        <v>13.01364016532898</v>
+        <v>13.01</v>
       </c>
       <c r="E2">
-        <v>52.6365373134613</v>
+        <v>52.64</v>
       </c>
       <c r="F2">
-        <v>12.90473533596674</v>
+        <v>12.9</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -723,16 +723,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.66228222846985</v>
+        <v>16.66</v>
       </c>
       <c r="L2">
-        <v>12.99758839607239</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>23.16063857078552</v>
+        <v>23.16</v>
       </c>
       <c r="N2">
-        <v>2.024482035397889</v>
+        <v>2.02</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -744,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="V2">
-        <v>5.354781434430943</v>
+        <v>5.35</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -759,28 +759,28 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>18.02818095684052</v>
+        <v>18.03</v>
       </c>
       <c r="AB2">
-        <v>12.75476837158203</v>
+        <v>12.75</v>
       </c>
       <c r="AC2">
-        <v>22.78662180900574</v>
+        <v>22.79</v>
       </c>
       <c r="AD2">
-        <v>2.490906339266768</v>
+        <v>2.49</v>
       </c>
       <c r="AE2">
-        <v>0.4125746488571167</v>
+        <v>0.41</v>
       </c>
       <c r="AF2">
-        <v>0.07769131660461426</v>
+        <v>0.08</v>
       </c>
       <c r="AG2">
-        <v>0.9140899181365967</v>
+        <v>0.91</v>
       </c>
       <c r="AH2">
-        <v>0.2530270131091922</v>
+        <v>0.25</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01181459426879883</v>
+        <v>0.01</v>
       </c>
       <c r="AL2">
-        <v>0.002635789030076286</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>25.48189687728882</v>
+        <v>25.48</v>
       </c>
       <c r="AP2">
-        <v>8.904584761190041</v>
+        <v>8.9</v>
       </c>
       <c r="AQ2">
         <v>9</v>
@@ -816,7 +816,7 @@
         <v>18</v>
       </c>
       <c r="AT2">
-        <v>3.762348091005766</v>
+        <v>3.76</v>
       </c>
       <c r="AU2">
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="AX2">
-        <v>1.904979624148524</v>
+        <v>1.9</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -845,16 +845,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>31.96281671524048</v>
+        <v>31.96</v>
       </c>
       <c r="D3">
-        <v>15.92838764190674</v>
+        <v>15.93</v>
       </c>
       <c r="E3">
-        <v>126.111542224884</v>
+        <v>126.11</v>
       </c>
       <c r="F3">
-        <v>31.91101623089584</v>
+        <v>31.91</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -869,16 +869,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.0022748708725</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>15.91302871704102</v>
+        <v>15.91</v>
       </c>
       <c r="M3">
-        <v>44.48915314674377</v>
+        <v>44.49</v>
       </c>
       <c r="N3">
-        <v>6.293881360150535</v>
+        <v>6.29</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="V3">
-        <v>8.286958682805551</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -899,34 +899,34 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.009310986964618196</v>
+        <v>0.01</v>
       </c>
       <c r="Z3">
-        <v>0.002081999979050072</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>20.13054955005645</v>
+        <v>20.13</v>
       </c>
       <c r="AB3">
-        <v>15.65698838233948</v>
+        <v>15.66</v>
       </c>
       <c r="AC3">
-        <v>49.35762810707092</v>
+        <v>49.36</v>
       </c>
       <c r="AD3">
-        <v>7.655143104774357</v>
+        <v>7.66</v>
       </c>
       <c r="AE3">
-        <v>0.4793486595153809</v>
+        <v>0.48</v>
       </c>
       <c r="AF3">
-        <v>0.05914473533630371</v>
+        <v>0.06</v>
       </c>
       <c r="AG3">
-        <v>3.764784812927246</v>
+        <v>3.76</v>
       </c>
       <c r="AH3">
-        <v>0.9256432711573395</v>
+        <v>0.93</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -935,22 +935,22 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0007483959197998047</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0002220362748536315</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.592875719070435</v>
+        <v>2.59</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>59.96159315109253</v>
+        <v>59.96</v>
       </c>
       <c r="AP3">
-        <v>20.0643658392546</v>
+        <v>20.06</v>
       </c>
       <c r="AQ3">
         <v>9</v>
@@ -962,7 +962,7 @@
         <v>61</v>
       </c>
       <c r="AT3">
-        <v>13.22069748936353</v>
+        <v>13.22</v>
       </c>
       <c r="AU3">
         <v>6</v>
@@ -974,7 +974,7 @@
         <v>50</v>
       </c>
       <c r="AX3">
-        <v>10.51765433124606</v>
+        <v>10.52</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -991,16 +991,16 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>29.91603803634644</v>
+        <v>29.92</v>
       </c>
       <c r="D4">
-        <v>17.70682954788208</v>
+        <v>17.71</v>
       </c>
       <c r="E4">
-        <v>130.5709841251373</v>
+        <v>130.57</v>
       </c>
       <c r="F4">
-        <v>25.99545054473997</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.53640699386597</v>
+        <v>21.54</v>
       </c>
       <c r="L4">
-        <v>17.68585324287415</v>
+        <v>17.69</v>
       </c>
       <c r="M4">
-        <v>91.09365248680115</v>
+        <v>91.09</v>
       </c>
       <c r="N4">
-        <v>15.80748362724306</v>
+        <v>15.81</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -1036,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="V4">
-        <v>3.789181275268064</v>
+        <v>3.79</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1045,34 +1045,34 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001234567901234568</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002760577749999741</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>22.5524685382843</v>
+        <v>22.55</v>
       </c>
       <c r="AB4">
-        <v>17.32759070396423</v>
+        <v>17.33</v>
       </c>
       <c r="AC4">
-        <v>86.53259062767029</v>
+        <v>86.53</v>
       </c>
       <c r="AD4">
-        <v>14.63978548862711</v>
+        <v>14.64</v>
       </c>
       <c r="AE4">
-        <v>0.346585750579834</v>
+        <v>0.35</v>
       </c>
       <c r="AF4">
-        <v>0.1020967960357666</v>
+        <v>0.1</v>
       </c>
       <c r="AG4">
-        <v>6.753681659698486</v>
+        <v>6.75</v>
       </c>
       <c r="AH4">
-        <v>1.44375375851166</v>
+        <v>1.44</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.01020336151123047</v>
+        <v>0.01</v>
       </c>
       <c r="AL4">
-        <v>0.002281540993811631</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>28.45657467842102</v>
+        <v>28.46</v>
       </c>
       <c r="AP4">
-        <v>9.807141231275169</v>
+        <v>9.81</v>
       </c>
       <c r="AQ4">
         <v>8</v>
@@ -1108,7 +1108,7 @@
         <v>99</v>
       </c>
       <c r="AT4">
-        <v>20.82483335372762</v>
+        <v>20.82</v>
       </c>
       <c r="AU4">
         <v>5.5</v>
@@ -1120,7 +1120,7 @@
         <v>96</v>
       </c>
       <c r="AX4">
-        <v>20.55442070519906</v>
+        <v>20.55</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -1137,16 +1137,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>114.6147179603577</v>
+        <v>114.61</v>
       </c>
       <c r="D5">
-        <v>53.38911414146423</v>
+        <v>53.39</v>
       </c>
       <c r="E5">
-        <v>370.7170827388763</v>
+        <v>370.72</v>
       </c>
       <c r="F5">
-        <v>94.24661953030332</v>
+        <v>94.25</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>44.53191578388214</v>
+        <v>44.53</v>
       </c>
       <c r="L5">
-        <v>39.10715818405151</v>
+        <v>39.11</v>
       </c>
       <c r="M5">
-        <v>81.41176867485046</v>
+        <v>81.41</v>
       </c>
       <c r="N5">
-        <v>11.5165185226467</v>
+        <v>11.52</v>
       </c>
       <c r="S5">
         <v>9</v>
@@ -1182,7 +1182,7 @@
         <v>33</v>
       </c>
       <c r="V5">
-        <v>10.02050529243857</v>
+        <v>10.02</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>51.37201070785522</v>
+        <v>51.37</v>
       </c>
       <c r="AB5">
-        <v>40.58600544929504</v>
+        <v>40.59</v>
       </c>
       <c r="AC5">
-        <v>96.87660789489746</v>
+        <v>96.88</v>
       </c>
       <c r="AD5">
-        <v>14.61081428455652</v>
+        <v>14.61</v>
       </c>
       <c r="AE5">
-        <v>1.503524065017701</v>
+        <v>1.5</v>
       </c>
       <c r="AF5">
-        <v>0.4342553615570068</v>
+        <v>0.43</v>
       </c>
       <c r="AG5">
-        <v>4.843416929244995</v>
+        <v>4.84</v>
       </c>
       <c r="AH5">
-        <v>1.287655003214024</v>
+        <v>1.29</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1227,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.04456734657287598</v>
+        <v>0.04</v>
       </c>
       <c r="AL5">
-        <v>0.01045472504406049</v>
+        <v>0.01</v>
       </c>
       <c r="AM5">
-        <v>34.16291511058807</v>
+        <v>34.16</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>197.4634704589844</v>
+        <v>197.46</v>
       </c>
       <c r="AP5">
-        <v>65.48896421444579</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="AQ5">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="AT5">
-        <v>7.469235147202859</v>
+        <v>7.47</v>
       </c>
       <c r="AU5">
         <v>5.5</v>
@@ -1266,7 +1266,7 @@
         <v>26</v>
       </c>
       <c r="AX5">
-        <v>5.099019513592784</v>
+        <v>5.1</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -1283,16 +1283,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>208.0314059257507</v>
+        <v>208.03</v>
       </c>
       <c r="D6">
-        <v>148.4854166507721</v>
+        <v>148.49</v>
       </c>
       <c r="E6">
-        <v>533.109787940979</v>
+        <v>533.11</v>
       </c>
       <c r="F6">
-        <v>113.5174768792775</v>
+        <v>113.52</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>158.7373907566071</v>
+        <v>158.74</v>
       </c>
       <c r="L6">
-        <v>148.3667476177216</v>
+        <v>148.37</v>
       </c>
       <c r="M6">
-        <v>179.1688616275787</v>
+        <v>179.17</v>
       </c>
       <c r="N6">
-        <v>9.869898877588627</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1328,7 +1328,7 @@
         <v>35</v>
       </c>
       <c r="V6">
-        <v>9.821565959394503</v>
+        <v>9.82</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>170.5518503189087</v>
+        <v>170.55</v>
       </c>
       <c r="AB6">
-        <v>147.4479835033417</v>
+        <v>147.45</v>
       </c>
       <c r="AC6">
-        <v>198.0862319469452</v>
+        <v>198.09</v>
       </c>
       <c r="AD6">
-        <v>15.30667391660978</v>
+        <v>15.31</v>
       </c>
       <c r="AE6">
-        <v>1.401506304740906</v>
+        <v>1.4</v>
       </c>
       <c r="AF6">
-        <v>0.2121121883392334</v>
+        <v>0.21</v>
       </c>
       <c r="AG6">
-        <v>4.294167041778564</v>
+        <v>4.29</v>
       </c>
       <c r="AH6">
-        <v>1.129969184814171</v>
+        <v>1.13</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.04107952117919922</v>
+        <v>0.04</v>
       </c>
       <c r="AL6">
-        <v>0.01157096487809181</v>
+        <v>0.01</v>
       </c>
       <c r="AM6">
-        <v>9.17237448692322</v>
+        <v>9.17</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>266.223753452301</v>
+        <v>266.22</v>
       </c>
       <c r="AP6">
-        <v>80.24374945504618</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="AQ6">
         <v>10</v>
@@ -1400,7 +1400,7 @@
         <v>25</v>
       </c>
       <c r="AT6">
-        <v>5.556172480366223</v>
+        <v>5.56</v>
       </c>
       <c r="AU6">
         <v>5</v>
@@ -1412,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="AX6">
-        <v>2.305028827311459</v>
+        <v>2.31</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -1429,16 +1429,16 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>339.2450070381165</v>
+        <v>339.25</v>
       </c>
       <c r="D7">
-        <v>64.34692525863647</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="E7">
-        <v>1040.591737508774</v>
+        <v>1040.59</v>
       </c>
       <c r="F7">
-        <v>311.440296319837</v>
+        <v>311.44</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1453,16 +1453,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>216.4814083576202</v>
+        <v>216.48</v>
       </c>
       <c r="L7">
-        <v>31.26843976974487</v>
+        <v>31.27</v>
       </c>
       <c r="M7">
-        <v>288.2096076011658</v>
+        <v>288.21</v>
       </c>
       <c r="N7">
-        <v>67.10113578006843</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="S7">
         <v>7</v>
@@ -1474,43 +1474,43 @@
         <v>45</v>
       </c>
       <c r="V7">
-        <v>14.2015566233535</v>
+        <v>14.2</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-1.572432057007137E-16</v>
+        <v>-0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>3.516064969467783E-17</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>226.9123095273972</v>
+        <v>226.91</v>
       </c>
       <c r="AB7">
-        <v>33.63930106163025</v>
+        <v>33.64</v>
       </c>
       <c r="AC7">
-        <v>326.0273747444153</v>
+        <v>326.03</v>
       </c>
       <c r="AD7">
-        <v>77.64747404525301</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="AE7">
-        <v>2.316200733184814</v>
+        <v>2.32</v>
       </c>
       <c r="AF7">
-        <v>0.5523040294647217</v>
+        <v>0.55</v>
       </c>
       <c r="AG7">
-        <v>7.692911386489868</v>
+        <v>7.69</v>
       </c>
       <c r="AH7">
-        <v>2.424012715426588</v>
+        <v>2.42</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1519,22 +1519,22 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.1712572574615479</v>
+        <v>0.17</v>
       </c>
       <c r="AL7">
-        <v>0.05423256004261243</v>
+        <v>0.05</v>
       </c>
       <c r="AM7">
-        <v>54.41067731380463</v>
+        <v>54.41</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>570.3559806346893</v>
+        <v>570.36</v>
       </c>
       <c r="AP7">
-        <v>200.3779766287782</v>
+        <v>200.38</v>
       </c>
       <c r="AQ7">
         <v>9.5</v>
@@ -1546,7 +1546,7 @@
         <v>27</v>
       </c>
       <c r="AT7">
-        <v>7.85794937760817</v>
+        <v>7.86</v>
       </c>
       <c r="AU7">
         <v>4.5</v>
@@ -1558,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="AX7">
-        <v>2.903718124640962</v>
+        <v>2.9</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -1575,16 +1575,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>834.060457110405</v>
+        <v>834.0599999999999</v>
       </c>
       <c r="D8">
-        <v>285.1801164150238</v>
+        <v>285.18</v>
       </c>
       <c r="E8">
-        <v>1192.458319187164</v>
+        <v>1192.46</v>
       </c>
       <c r="F8">
-        <v>298.8828602800069</v>
+        <v>298.88</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>261.4412437677383</v>
+        <v>261.44</v>
       </c>
       <c r="L8">
-        <v>108.4817416667938</v>
+        <v>108.48</v>
       </c>
       <c r="M8">
-        <v>304.9545180797577</v>
+        <v>304.95</v>
       </c>
       <c r="N8">
-        <v>48.05048526100716</v>
+        <v>48.05</v>
       </c>
       <c r="S8">
         <v>29</v>
@@ -1620,7 +1620,7 @@
         <v>45</v>
       </c>
       <c r="V8">
-        <v>14.97049730215013</v>
+        <v>14.97</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1635,52 +1635,52 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>287.4965124130249</v>
+        <v>287.5</v>
       </c>
       <c r="AB8">
-        <v>151.1041254997253</v>
+        <v>151.1</v>
       </c>
       <c r="AC8">
-        <v>369.0920722484589</v>
+        <v>369.09</v>
       </c>
       <c r="AD8">
-        <v>50.13902552392935</v>
+        <v>50.14</v>
       </c>
       <c r="AE8">
-        <v>7.577893853187561</v>
+        <v>7.58</v>
       </c>
       <c r="AF8">
-        <v>0.8638827800750732</v>
+        <v>0.86</v>
       </c>
       <c r="AG8">
-        <v>13.15253305435181</v>
+        <v>13.15</v>
       </c>
       <c r="AH8">
-        <v>3.148556125281305</v>
+        <v>3.15</v>
       </c>
       <c r="AI8">
-        <v>0.08199620246887207</v>
+        <v>0.08</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.1732628345489502</v>
+        <v>0.17</v>
       </c>
       <c r="AL8">
-        <v>0.05815483249380718</v>
+        <v>0.06</v>
       </c>
       <c r="AM8">
-        <v>378.3890762329102</v>
+        <v>378.39</v>
       </c>
       <c r="AN8">
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>658.1359167098999</v>
+        <v>658.14</v>
       </c>
       <c r="AP8">
-        <v>213.073065300966</v>
+        <v>213.07</v>
       </c>
       <c r="AQ8">
         <v>22</v>
@@ -1692,7 +1692,7 @@
         <v>46</v>
       </c>
       <c r="AT8">
-        <v>9.836960377763255</v>
+        <v>9.84</v>
       </c>
       <c r="AU8">
         <v>6</v>
@@ -1704,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="AX8">
-        <v>4.7114083267164</v>
+        <v>4.71</v>
       </c>
       <c r="AY8">
         <v>1</v>
